--- a/Generalized Relative Proficiency Index.xlsx
+++ b/Generalized Relative Proficiency Index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\Dropbox\Psychometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630D37A4-12D3-4A2C-93F8-884F7C55F909}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210468F2-0BA5-4D6C-AC27-61F60D978DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRPI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="Peer">Pictures!$A$1</definedName>
-    <definedName name="ShowPicture">INDIRECT(GRPI!$O$6)</definedName>
+    <definedName name="ShowPicture">INDIRECT(GRPI!$O$8)</definedName>
     <definedName name="Student">Pictures!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -59,12 +59,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>RefW</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>WDiff</t>
@@ -154,6 +151,21 @@
   <si>
     <t>Formula:</t>
   </si>
+  <si>
+    <t>W &amp; RefW</t>
+  </si>
+  <si>
+    <t>Wdiff</t>
+  </si>
+  <si>
+    <t>Criterion Type</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +222,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -226,12 +253,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -254,19 +281,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -290,6 +339,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -298,17 +357,84 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -322,7 +448,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="22" fmlaLink="$O$5" fmlaRange="$N$5:$N$6" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="22" fmlaLink="$O$7" fmlaRange="$N$7:$N$8" sel="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="List" dx="22" fmlaLink="$S$7" fmlaRange="$R$7:$R$8" sel="2" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,16 +461,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>133349</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -391,13 +521,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
-          <xdr:row>10</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>657225</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
@@ -405,7 +535,7 @@
             <xdr:cNvPr id="4" name="Picture 3">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{658B8FB7-A895-47B3-99FA-F0BEF351713D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -413,7 +543,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ShowPicture" spid="_x0000_s1033"/>
+                  <a14:cameraTool cellRange="ShowPicture" spid="_x0000_s1046"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -453,6 +583,64 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>85725</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>9526</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76201</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="List Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -476,7 +664,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBBF851-7862-4607-93F5-2DB4D9DF4064}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -531,7 +719,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69F5B36-2522-470E-99E2-25910E173753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -579,9 +767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -619,9 +807,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,26 +842,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,26 +877,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -900,10 +1054,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:R15"/>
+  <dimension ref="B2:Y16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -911,214 +1065,297 @@
     <col min="1" max="1" width="5.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="2" customWidth="1"/>
     <col min="3" max="6" width="15.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="10" width="28.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="5"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14"/>
+    <col min="10" max="10" width="28.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="9.140625" style="4"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:25" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="G4" s="5"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="str">
+        <f>IF(S7=1,"W","WDiff")</f>
+        <v>WDiff</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="I5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="17">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17">
+        <v>500</v>
+      </c>
+      <c r="E6" s="5">
+        <f>IF(S7=1,C6-D6,C6)</f>
+        <v>40</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="7">
+        <f>(1+EXP(-1*(LN(B6/(1-B6))+(E6)/9.1024)))^(-1)</f>
+        <v>0.99863013187866179</v>
+      </c>
+      <c r="L7" s="5">
+        <f>MIN(IF(AND(K7&lt;0.99,K7&gt;0.01),2,-1*FLOOR(LOG10(IF(K7&lt;0.5,K7,1-K7)),1)),5)</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f>ROUND(K7,L7)*100&amp;"/"&amp;B6*100</f>
+        <v>99.9/90</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="20">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8" t="str">
+        <f>"An item that a same-age peer of average ability has a "&amp;B6*100&amp;"% chance of answering correctly, this student has a "&amp;ROUND(K7,L7)*100&amp;"% chance of answering correctly."</f>
+        <v>An item that a same-age peer of average ability has a 90% chance of answering correctly, this student has a 99.9% chance of answering correctly.</v>
+      </c>
+      <c r="Q7" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="R7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="20">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6">
+        <f>LN(B6/(1-B6))+(E6)/9.1024</f>
+        <v>6.5916699983240914</v>
+      </c>
+      <c r="U7" s="8" t="str">
+        <f>"When peers of average ability encounter items with a difficulty level such that they can answer them correctly "&amp;ROUND(B6*100,1)&amp;"% of the time, this student has a "&amp;ROUND(K7*100,L7-2)&amp;"% chance of answering them correctly."</f>
+        <v>When peers of average ability encounter items with a difficulty level such that they can answer them correctly 90% of the time, this student has a 99.9% chance of answering them correctly.</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="12" t="s">
+    <row r="8" spans="2:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="str" cm="1">
+        <f t="array" ref="B8">IFERROR(INDEX(M7:M8,O7),"")</f>
+        <v>99.9/90</v>
+      </c>
+      <c r="K8" s="9">
+        <f>(1+EXP(LN(1/B6-1)+(E6)/9.1024))^-1</f>
+        <v>0.1000003360321129</v>
+      </c>
+      <c r="L8" s="5">
+        <f>MIN(IF(AND(K8&lt;0.99,K8&gt;0.01),2,-1*FLOOR(LOG10(IF(K8&lt;0.5,K8,1-K8)),1)),5)</f>
+        <v>2</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f>B6*100&amp;"/"&amp;ROUND(K8,L8)*100</f>
+        <v>90/10</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="str" cm="1">
+        <f t="array" ref="O8">INDEX(Q7:Q8,O7)</f>
+        <v>Peer</v>
+      </c>
+      <c r="P8" s="8" t="str">
+        <f>"For an item that this student has a "&amp;B6*100&amp;"% chance of answering correctly, a same-age peer of average ability has a "&amp;ROUND(K8,L8)*100&amp;"% chance of answering correctly."</f>
+        <v>For an item that this student has a 90% chance of answering correctly, a same-age peer of average ability has a 10% chance of answering correctly.</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="8" t="str">
+        <f>"When this student encounters items with a difficulty level such that the student can answer them correctly "&amp;ROUND(B6*100,1)&amp;"% of the time, peers with average ability have a "&amp;ROUND(K8*100,L8-2)&amp;"% chance of answering them correctly."</f>
+        <v>When this student encounters items with a difficulty level such that the student can answer them correctly 90% of the time, peers with average ability have a 10% chance of answering them correctly.</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:25" ht="78" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="str">
+        <f>IFERROR(IF(O7=1,U7,U8),"")</f>
+        <v>When peers of average ability encounter items with a difficulty level such that they can answer them correctly 90% of the time, this student has a 99.9% chance of answering them correctly.</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
-    <row r="5" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7">
-        <f>LN(B6/(1-B6))+(C6-D6)/9.1024</f>
-        <v>6.5916699983240914</v>
-      </c>
-      <c r="K5" s="8">
-        <f>(1+EXP(-1*(LN(B6/(1-B6))+(C6-D6)/9.1024)))^(-1)</f>
-        <v>0.99863013187866179</v>
-      </c>
-      <c r="L5" s="6">
-        <f>MIN(IF(AND(K5&lt;0.99,K5&gt;0.01),2,-1*FLOOR(LOG10(IF(K5&lt;0.5,K5,1-K5)),1)),5)</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="6" t="str">
-        <f>ROUND(K5,L5)*100&amp;"/"&amp;B6*100</f>
-        <v>99.9/90</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="9" t="str">
-        <f>"An item that a same-age peer of average ability has a "&amp;B6*100&amp;"% chance of answering correctly, this student has a "&amp;ROUND(K5,L5)*100&amp;"% chance of answering correctly."</f>
-        <v>An item that a same-age peer of average ability has a 90% chance of answering correctly, this student has a 99.9% chance of answering correctly.</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="6"/>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
-    <row r="6" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="14">
-        <v>540</v>
-      </c>
-      <c r="D6" s="14">
-        <v>500</v>
-      </c>
-      <c r="E6" s="15">
-        <f>C6-D6</f>
-        <v>40</v>
-      </c>
-      <c r="F6" s="15" t="str" cm="1">
-        <f t="array" ref="F6">INDEX(M5:M6,O5)</f>
-        <v>99.9/90</v>
-      </c>
-      <c r="K6" s="10">
-        <f>(1+EXP(LN(1/B6-1)+(C6-D6)/9.1024))^-1</f>
-        <v>0.1000003360321129</v>
-      </c>
-      <c r="L6" s="6">
-        <f>MIN(IF(AND(K6&lt;0.99,K6&gt;0.01),2,-1*FLOOR(LOG10(IF(K6&lt;0.5,K6,1-K6)),1)),5)</f>
-        <v>2</v>
-      </c>
-      <c r="M6" s="6" t="str">
-        <f>B6*100&amp;"/"&amp;ROUND(K6,L6)*100</f>
-        <v>90/10</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="5" t="str" cm="1">
-        <f t="array" ref="O6">INDEX(Q5:Q6,O5)</f>
-        <v>Peer</v>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f>"For an item that this student has a "&amp;B6*100&amp;"% chance of answering correctly, a same-age peer of average ability has a "&amp;ROUND(K6,L6)*100&amp;"% chance of answering correctly."</f>
-        <v>For an item that this student has a 90% chance of answering correctly, a same-age peer of average ability has a 10% chance of answering correctly.</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>8</v>
-      </c>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
-    <row r="7" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="str" cm="1">
-        <f t="array" ref="B8">INDEX(P5:P6,O5)</f>
-        <v>An item that a same-age peer of average ability has a 90% chance of answering correctly, this student has a 99.9% chance of answering correctly.</v>
-      </c>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B11:J15"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="B12:J16"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B9:I9"/>
   </mergeCells>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$S$7=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$S$7=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$S$7=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$S$7=2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Select" prompt="Select" sqref="H3:H4" xr:uid="{07E4F51F-BF80-4738-8CDA-E55BDDCBACE3}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Select" prompt="Select" sqref="H3:H6" xr:uid="{07E4F51F-BF80-4738-8CDA-E55BDDCBACE3}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L8:M8 P8" evalError="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -1130,16 +1367,38 @@
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>133350</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>66675</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>57150</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId5" name="List Box 14">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>466725</xdr:colOff>
+                    <xdr:colOff>390525</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>76200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
